--- a/App Test Case.xlsx
+++ b/App Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13395" windowHeight="8010" firstSheet="8" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13395" windowHeight="8010" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="460">
   <si>
     <t>No</t>
   </si>
@@ -422,9 +422,6 @@
     <t xml:space="preserve">1. Click search feature
 2. Enter unknown product keyword
 </t>
-  </si>
-  <si>
-    <t>Doesn't show anything</t>
   </si>
   <si>
     <t xml:space="preserve">1. Click search feature
@@ -1133,9 +1130,6 @@
 6. Input confirm password</t>
   </si>
   <si>
-    <t>Cannor change password and showing error message 'Fobidden'</t>
-  </si>
-  <si>
     <t>User want to edit name by deleting it</t>
   </si>
   <si>
@@ -1551,16 +1545,10 @@
     <t>1. Go to transaction</t>
   </si>
   <si>
-    <t>User want to see order detail</t>
-  </si>
-  <si>
     <t>1. Go to transaction
 2. Click on a product</t>
   </si>
   <si>
-    <t>Showing order detail</t>
-  </si>
-  <si>
     <t>TC_Trans_002</t>
   </si>
   <si>
@@ -1582,13 +1570,6 @@
     <t>Showing notification that  someone is bidding on a product</t>
   </si>
   <si>
-    <t>User want to see detailed bidder info</t>
-  </si>
-  <si>
-    <t>1. Click notification feature
-2. Click on notification product offer</t>
-  </si>
-  <si>
     <t>Redirected to bidder info page</t>
   </si>
   <si>
@@ -1596,11 +1577,6 @@
   </si>
   <si>
     <t>User want to see published product details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click notification feature
-2. Click on product notification successfully published
-</t>
   </si>
   <si>
     <t>TC_Notif_001</t>
@@ -1632,13 +1608,46 @@
   </si>
   <si>
     <t>TC_Logout_001</t>
+  </si>
+  <si>
+    <t>Showing message 'No results found for "xctehkj" '</t>
+  </si>
+  <si>
+    <t>Showing message 'No results found for "bajk" '</t>
+  </si>
+  <si>
+    <t>Password edited successfully and showing message 'Password updated successfully'</t>
+  </si>
+  <si>
+    <t>User want to see transaction detail</t>
+  </si>
+  <si>
+    <t>Showing transaction history and order status</t>
+  </si>
+  <si>
+    <t>Showing transation detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click notification feature
+2. Click on product notification with title 'successfully published'
+</t>
+  </si>
+  <si>
+    <t>Redirected product detail page</t>
+  </si>
+  <si>
+    <t>User want to see product offer detail</t>
+  </si>
+  <si>
+    <t>1. Click notification feature
+2. Click on notification with title 'product offer'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1668,6 +1677,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1719,7 +1733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1770,6 +1784,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2075,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2410,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,25 +2483,25 @@
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2496,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,45 +2569,47 @@
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2622,7 @@
   <dimension ref="A3:Y7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,89 +2677,91 @@
     <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>439</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>401</v>
+      <c r="E7" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2808,25 +2829,25 @@
     <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2868,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3092,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,7 +3194,7 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>58</v>
@@ -3184,18 +3205,18 @@
       <c r="F5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>107</v>
+      <c r="G5" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>58</v>
@@ -3204,13 +3225,13 @@
         <v>102</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="H6" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3277,47 +3298,47 @@
     <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +3350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3394,553 +3415,553 @@
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3952,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -4007,47 +4028,47 @@
     <row r="4" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4115,245 +4136,245 @@
     <row r="4" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4365,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="C17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,25 +4442,25 @@
     <row r="4" spans="1:25" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I4" s="5"/>
       <c r="K4" s="5"/>
@@ -4462,22 +4483,22 @@
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I5" s="5"/>
       <c r="K5" s="5"/>
@@ -4500,348 +4521,348 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>322</v>
+      <c r="E11" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>452</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +4875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -4910,154 +4931,154 @@
     <row r="4" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -5065,22 +5086,22 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
   </sheetData>
